--- a/Base/Teams/Broncos/Distributions.xlsx
+++ b/Base/Teams/Broncos/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>NIG(0.8003364589125743, 0.6294065305625004, 1.0282575950816062, 2.886782566300945)</t>
-  </si>
-  <si>
-    <t>JSU(-0.8328008017356865, 1.1022019289155436, 4.522463513886706, 4.8906918043945105)</t>
-  </si>
-  <si>
-    <t>NCT(2.7160786605970264, 1.170105805073234, 0.43396519527840405, 2.460111124875427)</t>
-  </si>
-  <si>
-    <t>JSU(-1.1722139235501037, 1.1480706849146474, 2.812713508478006, 5.3679788946865035)</t>
+    <t>NIG(0.9438162591565569, 0.7410130172864903, 0.9044778483062809, 3.045390320510702)</t>
+  </si>
+  <si>
+    <t>JSU(-0.8452898259606749, 1.0909620827202438, 4.562415555171866, 4.745565372933688)</t>
+  </si>
+  <si>
+    <t>NIG(0.6415280308414395, 0.3685070557919531, 2.4804543024132313, 2.8985106463598256)</t>
+  </si>
+  <si>
+    <t>JSU(-1.0866085007192683, 1.1417333188554988, 3.2750257527091455, 5.575463199499277)</t>
   </si>
 </sst>
 </file>

--- a/Base/Teams/Broncos/Distributions.xlsx
+++ b/Base/Teams/Broncos/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>NIG(0.9438162591565569, 0.7410130172864903, 0.9044778483062809, 3.045390320510702)</t>
-  </si>
-  <si>
-    <t>JSU(-0.8452898259606749, 1.0909620827202438, 4.562415555171866, 4.745565372933688)</t>
-  </si>
-  <si>
-    <t>NIG(0.6415280308414395, 0.3685070557919531, 2.4804543024132313, 2.8985106463598256)</t>
-  </si>
-  <si>
-    <t>JSU(-1.0866085007192683, 1.1417333188554988, 3.2750257527091455, 5.575463199499277)</t>
+    <t>NIG(1.0436408138409994, 0.8124501614504589, 0.8808321659619507, 3.1274472362764705)</t>
+  </si>
+  <si>
+    <t>JSU(-0.8222644097515871, 1.05202803488568, 4.744755414132969, 4.363954381562556)</t>
+  </si>
+  <si>
+    <t>NIG(0.544995928668363, 0.31243505445076236, 2.6436849570409198, 2.788357328496261)</t>
+  </si>
+  <si>
+    <t>JSU(-1.0711820559001244, 1.1642134631721452, 3.297954423379929, 5.656121892825822)</t>
   </si>
 </sst>
 </file>

--- a/Base/Teams/Broncos/Distributions.xlsx
+++ b/Base/Teams/Broncos/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>NIG(1.0436408138409994, 0.8124501614504589, 0.8808321659619507, 3.1274472362764705)</t>
-  </si>
-  <si>
-    <t>JSU(-0.8222644097515871, 1.05202803488568, 4.744755414132969, 4.363954381562556)</t>
-  </si>
-  <si>
-    <t>NIG(0.544995928668363, 0.31243505445076236, 2.6436849570409198, 2.788357328496261)</t>
-  </si>
-  <si>
-    <t>JSU(-1.0711820559001244, 1.1642134631721452, 3.297954423379929, 5.656121892825822)</t>
+    <t>NIG(0.9409090464995247, 0.7041175376194337, 1.0514166398204328, 3.087744930529382)</t>
+  </si>
+  <si>
+    <t>JSU(-0.8514023414994896, 1.0613851577849713, 4.490502961028408, 4.409352958788498)</t>
+  </si>
+  <si>
+    <t>NIG(0.5254538891429947, 0.28116030297283046, 2.8132743060584806, 2.8005629058449273)</t>
+  </si>
+  <si>
+    <t>JSU(-1.084930290429198, 1.1568317259890988, 3.1027869595090563, 5.498227314630439)</t>
   </si>
 </sst>
 </file>

--- a/Base/Teams/Broncos/Distributions.xlsx
+++ b/Base/Teams/Broncos/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>NIG(0.9409090464995247, 0.7041175376194337, 1.0514166398204328, 3.087744930529382)</t>
-  </si>
-  <si>
-    <t>JSU(-0.8514023414994896, 1.0613851577849713, 4.490502961028408, 4.409352958788498)</t>
-  </si>
-  <si>
-    <t>NIG(0.5254538891429947, 0.28116030297283046, 2.8132743060584806, 2.8005629058449273)</t>
-  </si>
-  <si>
-    <t>JSU(-1.084930290429198, 1.1568317259890988, 3.1027869595090563, 5.498227314630439)</t>
+    <t>NIG(0.9009464725209637, 0.6455690948284724, 1.1889830929412324, 3.1678282639942745)</t>
+  </si>
+  <si>
+    <t>JSU(-0.8692851019365995, 1.052748650101893, 4.384017887912757, 4.421979114585777)</t>
+  </si>
+  <si>
+    <t>NIG(0.5501148123438273, 0.2850034474612263, 2.7407730556249605, 2.855733732087514)</t>
+  </si>
+  <si>
+    <t>JSU(-1.0436728175364258, 1.0843471331452244, 3.4239441456569133, 4.8532444915904875)</t>
   </si>
 </sst>
 </file>

--- a/Base/Teams/Broncos/Distributions.xlsx
+++ b/Base/Teams/Broncos/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>NIG(0.9009464725209637, 0.6455690948284724, 1.1889830929412324, 3.1678282639942745)</t>
-  </si>
-  <si>
-    <t>JSU(-0.8692851019365995, 1.052748650101893, 4.384017887912757, 4.421979114585777)</t>
-  </si>
-  <si>
-    <t>NIG(0.5501148123438273, 0.2850034474612263, 2.7407730556249605, 2.855733732087514)</t>
-  </si>
-  <si>
-    <t>JSU(-1.0436728175364258, 1.0843471331452244, 3.4239441456569133, 4.8532444915904875)</t>
+    <t>NIG(0.8251779309585252, 0.6012245913602724, 1.2612175380261814, 3.1332032875500233)</t>
+  </si>
+  <si>
+    <t>JSU(-0.8857409098576617, 1.0557264788051692, 4.3742083693798905, 4.4378454690354125)</t>
+  </si>
+  <si>
+    <t>NIG(0.5423499285266689, 0.28352982601061405, 2.801250485877909, 2.8251319740907905)</t>
+  </si>
+  <si>
+    <t>JSU(-1.0807344524313427, 1.1025791924412918, 3.248318519970014, 4.821470921730919)</t>
   </si>
 </sst>
 </file>
